--- a/parameter.xlsx
+++ b/parameter.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="42">
   <si>
     <t>population-size</t>
   </si>
@@ -120,19 +119,37 @@
     <t>super run</t>
   </si>
   <si>
-    <t>Sum</t>
+    <t>Referenzwert</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>Turniergröße = 10</t>
   </si>
   <si>
-    <t>Running Total</t>
+    <t>Mutationsrate = 30</t>
   </si>
   <si>
-    <t>Count</t>
+    <t>Mutationsrate = 10</t>
   </si>
   <si>
-    <t>avg fitness -best</t>
+    <t>Crossoverrate = 90</t>
+  </si>
+  <si>
+    <t>Crossoverrate = 10</t>
+  </si>
+  <si>
+    <t>Preserve-Common-Links = Off</t>
+  </si>
+  <si>
+    <t>Swap-mutation = Off</t>
+  </si>
+  <si>
+    <t>Populationsgröße = 200</t>
+  </si>
+  <si>
+    <t>Parametermix</t>
+  </si>
+  <si>
+    <t>Durchschn. Fitn.-Abweichung vom Bestwert</t>
   </si>
 </sst>
 </file>
@@ -140,7 +157,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -182,7 +199,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -230,7 +247,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>normal</c:v>
+                  <c:v>Referenzwert</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -360,7 +377,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>torunament size 10</c:v>
+                  <c:v>Turniergröße = 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -470,7 +487,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18.784035775093702</c:v>
+                  <c:v>18.784035775093699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -490,7 +507,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mutation rate 30</c:v>
+                  <c:v>Mutationsrate = 30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -620,7 +637,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mutation rate 10</c:v>
+                  <c:v>Mutationsrate = 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -750,7 +767,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>crossover rate 90</c:v>
+                  <c:v>Crossoverrate = 90</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -880,7 +897,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>crossover rate 10</c:v>
+                  <c:v>Crossoverrate = 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1010,7 +1027,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>preserve-common off</c:v>
+                  <c:v>Preserve-Common-Links = Off</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1143,7 +1160,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>swap-mutation off</c:v>
+                  <c:v>Swap-mutation = Off</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1276,7 +1293,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pop-size 200</c:v>
+                  <c:v>Populationsgröße = 200</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1409,7 +1426,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>super run</c:v>
+                  <c:v>Parametermix</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1658,6 +1675,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6462006014430404E-2"/>
+          <c:y val="0.73235818150468412"/>
+          <c:w val="0.80257738531671396"/>
+          <c:h val="0.26764181849531582"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1751,7 +1778,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>normal</c:v>
+                  <c:v>Referenzwert</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1849,7 +1876,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>avg fitness -best</c:v>
+                  <c:v>Durchschn. Fitn.-Abweichung vom Bestwert</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1861,7 +1888,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>90.600000000000023</c:v>
+                  <c:v>97.400000000000034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1881,7 +1908,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>torunament size 10</c:v>
+                  <c:v>Turniergröße = 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1979,7 +2006,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>avg fitness -best</c:v>
+                  <c:v>Durchschn. Fitn.-Abweichung vom Bestwert</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1991,7 +2018,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>102.39999999999998</c:v>
+                  <c:v>109.19999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2011,7 +2038,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mutation rate 30</c:v>
+                  <c:v>Mutationsrate = 30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2109,7 +2136,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>avg fitness -best</c:v>
+                  <c:v>Durchschn. Fitn.-Abweichung vom Bestwert</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2121,7 +2148,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>116.5</c:v>
+                  <c:v>123.30000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,7 +2168,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mutation rate 10</c:v>
+                  <c:v>Mutationsrate = 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2239,7 +2266,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>avg fitness -best</c:v>
+                  <c:v>Durchschn. Fitn.-Abweichung vom Bestwert</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2251,7 +2278,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>98.100000000000023</c:v>
+                  <c:v>104.90000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2271,7 +2298,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>crossover rate 90</c:v>
+                  <c:v>Crossoverrate = 90</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2369,7 +2396,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>avg fitness -best</c:v>
+                  <c:v>Durchschn. Fitn.-Abweichung vom Bestwert</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2381,7 +2408,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>55.600000000000023</c:v>
+                  <c:v>62.400000000000034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2401,7 +2428,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>crossover rate 10</c:v>
+                  <c:v>Crossoverrate = 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2499,7 +2526,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>avg fitness -best</c:v>
+                  <c:v>Durchschn. Fitn.-Abweichung vom Bestwert</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2511,7 +2538,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>234.20000000000005</c:v>
+                  <c:v>241.00000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2531,7 +2558,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>preserve-common off</c:v>
+                  <c:v>Preserve-Common-Links = Off</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2632,7 +2659,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>avg fitness -best</c:v>
+                  <c:v>Durchschn. Fitn.-Abweichung vom Bestwert</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2644,7 +2671,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>79.399999999999977</c:v>
+                  <c:v>86.199999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2664,7 +2691,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>swap-mutation off</c:v>
+                  <c:v>Swap-mutation = Off</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2765,7 +2792,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>avg fitness -best</c:v>
+                  <c:v>Durchschn. Fitn.-Abweichung vom Bestwert</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2777,7 +2804,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>93.199999999999989</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2797,7 +2824,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pop-size 200</c:v>
+                  <c:v>Populationsgröße = 200</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2898,7 +2925,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>avg fitness -best</c:v>
+                  <c:v>Durchschn. Fitn.-Abweichung vom Bestwert</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2910,7 +2937,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>40.5</c:v>
+                  <c:v>47.300000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2930,7 +2957,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>super run</c:v>
+                  <c:v>Parametermix</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3031,7 +3058,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>avg fitness -best</c:v>
+                  <c:v>Durchschn. Fitn.-Abweichung vom Bestwert</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3043,7 +3070,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>41.300000000000011</c:v>
+                  <c:v>48.100000000000023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4353,15 +4380,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>754380</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>784860</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>1005840</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4388,16 +4415,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>822960</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4724,8 +4751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q43" workbookViewId="0">
-      <selection activeCell="V68" sqref="V68"/>
+    <sheetView tabSelected="1" topLeftCell="O64" workbookViewId="0">
+      <selection activeCell="W51" sqref="W51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5196,34 +5223,34 @@
         <v>636</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
@@ -5367,7 +5394,7 @@
         <v>38.588081061384742</v>
       </c>
       <c r="Q44" s="2">
-        <v>18.784035775093702</v>
+        <v>18.784035775093699</v>
       </c>
       <c r="R44" s="2">
         <v>30.454063768239536</v>
@@ -5396,47 +5423,47 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="O45" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="P45">
-        <f>P41-372</f>
-        <v>90.600000000000023</v>
+        <f>P41-365.2</f>
+        <v>97.400000000000034</v>
       </c>
       <c r="Q45">
-        <f t="shared" ref="Q45:Y45" si="0">Q41-372</f>
-        <v>102.39999999999998</v>
+        <f>Q41-365.2</f>
+        <v>109.19999999999999</v>
       </c>
       <c r="R45">
-        <f t="shared" si="0"/>
-        <v>116.5</v>
+        <f>R41-365.2</f>
+        <v>123.30000000000001</v>
       </c>
       <c r="S45">
-        <f t="shared" si="0"/>
-        <v>98.100000000000023</v>
+        <f>S41-365.2</f>
+        <v>104.90000000000003</v>
       </c>
       <c r="T45">
-        <f t="shared" si="0"/>
-        <v>55.600000000000023</v>
+        <f>T41-365.2</f>
+        <v>62.400000000000034</v>
       </c>
       <c r="U45">
-        <f t="shared" si="0"/>
-        <v>234.20000000000005</v>
+        <f>U41-365.2</f>
+        <v>241.00000000000006</v>
       </c>
       <c r="V45">
-        <f t="shared" si="0"/>
-        <v>79.399999999999977</v>
+        <f>V41-365.2</f>
+        <v>86.199999999999989</v>
       </c>
       <c r="W45">
-        <f t="shared" si="0"/>
-        <v>93.199999999999989</v>
+        <f>W41-365.2</f>
+        <v>100</v>
       </c>
       <c r="X45">
-        <f t="shared" si="0"/>
-        <v>40.5</v>
+        <f>X41-365.2</f>
+        <v>47.300000000000011</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="0"/>
-        <v>41.300000000000011</v>
+        <f>Y41-365.2</f>
+        <v>48.100000000000023</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">

--- a/parameter.xlsx
+++ b/parameter.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="70">
   <si>
     <t>population-size</t>
   </si>
@@ -150,6 +150,90 @@
   </si>
   <si>
     <t>Durchschn. Fitn.-Abweichung vom Bestwert</t>
+  </si>
+  <si>
+    <t>Shark919</t>
+  </si>
+  <si>
+    <t>roulette</t>
+  </si>
+  <si>
+    <t>mapped crossover</t>
+  </si>
+  <si>
+    <t>elitism</t>
+  </si>
+  <si>
+    <t>environment (5)</t>
+  </si>
+  <si>
+    <t>environment (50)</t>
+  </si>
+  <si>
+    <t>environment (25)</t>
+  </si>
+  <si>
+    <t>elitism+roulette</t>
+  </si>
+  <si>
+    <t>super run 2 (sr 1 + elitism)</t>
+  </si>
+  <si>
+    <t>super run 3 (sr2+mut28+cor70)</t>
+  </si>
+  <si>
+    <t>Roulette = On</t>
+  </si>
+  <si>
+    <t>Mapped Crossover</t>
+  </si>
+  <si>
+    <t>Elitism</t>
+  </si>
+  <si>
+    <t>Env. Selection (size=5)</t>
+  </si>
+  <si>
+    <t>Env. Selection (size=25)</t>
+  </si>
+  <si>
+    <t>Env. Selection (size=50)</t>
+  </si>
+  <si>
+    <t>Elitism, Roulette = On</t>
+  </si>
+  <si>
+    <t>Parametermix (Elitism=On)</t>
+  </si>
+  <si>
+    <t>ohne</t>
+  </si>
+  <si>
+    <t>mit elitismus</t>
+  </si>
+  <si>
+    <t>avg ohne</t>
+  </si>
+  <si>
+    <t>avg mit</t>
+  </si>
+  <si>
+    <t>w/o</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>SR3</t>
+  </si>
+  <si>
+    <t>SR3 vanilla</t>
+  </si>
+  <si>
+    <t>Parametermix-2-Referenz (Mutation=28, Crossov. rate=70)</t>
+  </si>
+  <si>
+    <t>Parametermix-2 (Elitism=On)</t>
   </si>
 </sst>
 </file>
@@ -3269,6 +3353,3060 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$117</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Referenzwert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$122</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Durchschn. Fitn.-Abweichung vom Bestwert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>97.400000000000034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-081F-4084-8F1C-D2D48A14122C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Turniergröße = 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$122</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Durchschn. Fitn.-Abweichung vom Bestwert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>131.65714285714284</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-081F-4084-8F1C-D2D48A14122C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mutationsrate = 30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$122</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Durchschn. Fitn.-Abweichung vom Bestwert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>314.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-081F-4084-8F1C-D2D48A14122C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mutationsrate = 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$122</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Durchschn. Fitn.-Abweichung vom Bestwert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75.199999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-081F-4084-8F1C-D2D48A14122C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Crossoverrate = 90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$122</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Durchschn. Fitn.-Abweichung vom Bestwert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>132.19999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-081F-4084-8F1C-D2D48A14122C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Crossoverrate = 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$122</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Durchschn. Fitn.-Abweichung vom Bestwert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>143.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-081F-4084-8F1C-D2D48A14122C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Preserve-Common-Links = Off</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$122</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Durchschn. Fitn.-Abweichung vom Bestwert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>137.60000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-081F-4084-8F1C-D2D48A14122C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Swap-mutation = Off</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$122</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Durchschn. Fitn.-Abweichung vom Bestwert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-081F-4084-8F1C-D2D48A14122C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Populationsgröße = 200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$122</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Durchschn. Fitn.-Abweichung vom Bestwert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>56.400000000000034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-081F-4084-8F1C-D2D48A14122C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parametermix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$122</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Durchschn. Fitn.-Abweichung vom Bestwert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32.900000000000034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-081F-4084-8F1C-D2D48A14122C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="622089816"/>
+        <c:axId val="622090144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="622089816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622090144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="622090144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622089816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Referenzwert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$125</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>97.400000000000034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4BF-44E1-9F40-B3441D6989CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Roulette = On</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$125</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>131.65714285714284</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D4BF-44E1-9F40-B3441D6989CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mapped Crossover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$125</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>314.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D4BF-44E1-9F40-B3441D6989CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elitism</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$125</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75.199999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D4BF-44E1-9F40-B3441D6989CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Env. Selection (size=5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$125</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>132.19999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D4BF-44E1-9F40-B3441D6989CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Env. Selection (size=25)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$125</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>143.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D4BF-44E1-9F40-B3441D6989CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Env. Selection (size=50)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$125</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>137.60000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D4BF-44E1-9F40-B3441D6989CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elitism, Roulette = On</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$125</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D4BF-44E1-9F40-B3441D6989CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parametermix (Elitism=On)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>56.400000000000034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D4BF-44E1-9F40-B3441D6989CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parametermix-2-Referenz (Mutation=28, Crossov. rate=70)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>48.800000000000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-D4BF-44E1-9F40-B3441D6989CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parametermix-2 (Elitism=On)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32.900000000000034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-D4BF-44E1-9F40-B3441D6989CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="404329208"/>
+        <c:axId val="404330520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="404329208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404330520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="404330520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404329208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3349,6 +6487,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
@@ -3819,6 +7037,944 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4335,16 +8491,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>212015</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>136199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>517546</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>5511</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>127581</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>118850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4367,8 +8523,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="601980" y="11727180"/>
-          <a:ext cx="4914286" cy="1628571"/>
+          <a:off x="821615" y="11252434"/>
+          <a:ext cx="4917872" cy="1596298"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4444,6 +8600,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>79338</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>76424</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2EAE5D2-63A3-475B-B9F0-7D04D9E37E23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533398</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>376518</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BF44DB-D60A-4106-B3CE-498D89A8F207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4749,10 +8979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Y91"/>
+  <dimension ref="A2:Z166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O64" workbookViewId="0">
-      <selection activeCell="W51" sqref="W51"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5426,43 +9656,43 @@
         <v>41</v>
       </c>
       <c r="P45">
-        <f>P41-365.2</f>
+        <f t="shared" ref="P45:Y45" si="0">P41-365.2</f>
         <v>97.400000000000034</v>
       </c>
       <c r="Q45">
-        <f>Q41-365.2</f>
+        <f t="shared" si="0"/>
         <v>109.19999999999999</v>
       </c>
       <c r="R45">
-        <f>R41-365.2</f>
+        <f t="shared" si="0"/>
         <v>123.30000000000001</v>
       </c>
       <c r="S45">
-        <f>S41-365.2</f>
+        <f t="shared" si="0"/>
         <v>104.90000000000003</v>
       </c>
       <c r="T45">
-        <f>T41-365.2</f>
+        <f t="shared" si="0"/>
         <v>62.400000000000034</v>
       </c>
       <c r="U45">
-        <f>U41-365.2</f>
+        <f t="shared" si="0"/>
         <v>241.00000000000006</v>
       </c>
       <c r="V45">
-        <f>V41-365.2</f>
+        <f t="shared" si="0"/>
         <v>86.199999999999989</v>
       </c>
       <c r="W45">
-        <f>W41-365.2</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="X45">
-        <f>X41-365.2</f>
+        <f t="shared" si="0"/>
         <v>47.300000000000011</v>
       </c>
       <c r="Y45">
-        <f>Y41-365.2</f>
+        <f t="shared" si="0"/>
         <v>48.100000000000023</v>
       </c>
     </row>
@@ -5520,7 +9750,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>22</v>
       </c>
@@ -5529,7 +9759,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>23</v>
       </c>
@@ -5538,7 +9768,12 @@
         <v>23.221541723150082</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
         <v>25</v>
       </c>
@@ -5579,7 +9814,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>15</v>
       </c>
@@ -5594,7 +9829,7 @@
         <v>488.5</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>21</v>
       </c>
@@ -5609,7 +9844,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>22</v>
       </c>
@@ -5624,7 +9859,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>23</v>
       </c>
@@ -5639,7 +9874,7 @@
         <v>30.454063768239536</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -5683,7 +9918,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>15</v>
       </c>
@@ -5695,7 +9930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>21</v>
       </c>
@@ -5707,7 +9942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>22</v>
       </c>
@@ -5719,7 +9954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>23</v>
       </c>
@@ -5731,7 +9966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="O63" s="1" t="s">
         <v>19</v>
       </c>
@@ -5739,7 +9974,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="O64" t="s">
         <v>15</v>
       </c>
@@ -5876,7 +10111,31 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B81" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81">
+        <v>481</v>
+      </c>
+      <c r="D81">
+        <v>500</v>
+      </c>
+      <c r="E81">
+        <v>460</v>
+      </c>
+      <c r="F81">
+        <v>513</v>
+      </c>
+      <c r="G81">
+        <v>531</v>
+      </c>
+      <c r="H81">
+        <v>495</v>
+      </c>
+      <c r="I81">
+        <v>498</v>
+      </c>
       <c r="O81" s="1" t="s">
         <v>25</v>
       </c>
@@ -5884,27 +10143,88 @@
         <v>481</v>
       </c>
     </row>
-    <row r="82" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82">
+        <f>AVERAGE(C81:L81)</f>
+        <v>496.85714285714283</v>
+      </c>
       <c r="O82" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83">
+        <f>MIN(C81:L81)</f>
+        <v>460</v>
+      </c>
       <c r="O83" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84">
+        <f>MAX(C81:L81)</f>
+        <v>531</v>
+      </c>
       <c r="O84" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85">
+        <f>_xlfn.STDEV.P(C81:L81)</f>
+        <v>20.876703156721792</v>
+      </c>
       <c r="O85" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B87" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87">
+        <v>676</v>
+      </c>
+      <c r="D87">
+        <v>651</v>
+      </c>
+      <c r="E87">
+        <v>708</v>
+      </c>
+      <c r="F87">
+        <v>705</v>
+      </c>
+      <c r="G87">
+        <v>737</v>
+      </c>
+      <c r="H87">
+        <v>658</v>
+      </c>
+      <c r="I87">
+        <v>699</v>
+      </c>
+      <c r="J87">
+        <v>681</v>
+      </c>
+      <c r="K87">
+        <v>624</v>
+      </c>
+      <c r="L87">
+        <v>655</v>
+      </c>
       <c r="O87" s="1" t="s">
         <v>29</v>
       </c>
@@ -5912,7 +10232,14 @@
         <v>440</v>
       </c>
     </row>
-    <row r="88" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88">
+        <f>AVERAGE(C87:L87)</f>
+        <v>679.4</v>
+      </c>
       <c r="O88" t="s">
         <v>15</v>
       </c>
@@ -5920,7 +10247,14 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="89" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89">
+        <f>MIN(C87:L87)</f>
+        <v>624</v>
+      </c>
       <c r="O89" t="s">
         <v>21</v>
       </c>
@@ -5928,7 +10262,14 @@
         <v>377</v>
       </c>
     </row>
-    <row r="90" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90">
+        <f>MAX(C87:L87)</f>
+        <v>737</v>
+      </c>
       <c r="O90" t="s">
         <v>22</v>
       </c>
@@ -5936,12 +10277,1158 @@
         <v>452</v>
       </c>
     </row>
-    <row r="91" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91">
+        <f>_xlfn.STDEV.P(C87:L87)</f>
+        <v>31.809432563313667</v>
+      </c>
       <c r="O91" t="s">
         <v>23</v>
       </c>
       <c r="P91">
         <v>21.62059203629725</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B93" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93">
+        <v>425</v>
+      </c>
+      <c r="D93">
+        <v>407</v>
+      </c>
+      <c r="E93">
+        <v>467</v>
+      </c>
+      <c r="F93">
+        <v>506</v>
+      </c>
+      <c r="G93">
+        <v>401</v>
+      </c>
+      <c r="H93">
+        <v>518</v>
+      </c>
+      <c r="I93">
+        <v>434</v>
+      </c>
+      <c r="J93">
+        <v>416</v>
+      </c>
+      <c r="K93">
+        <v>387</v>
+      </c>
+      <c r="L93">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94">
+        <f>AVERAGE(C93:L93)</f>
+        <v>440.4</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95">
+        <f>MIN(C93:L93)</f>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96">
+        <f>MAX(C93:L93)</f>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97">
+        <f>_xlfn.STDEV.P(C93:L93)</f>
+        <v>41.752125694388305</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B99" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C99">
+        <v>538</v>
+      </c>
+      <c r="D99">
+        <v>468</v>
+      </c>
+      <c r="E99">
+        <v>550</v>
+      </c>
+      <c r="F99">
+        <v>548</v>
+      </c>
+      <c r="G99">
+        <v>469</v>
+      </c>
+      <c r="H99">
+        <v>439</v>
+      </c>
+      <c r="I99">
+        <v>559</v>
+      </c>
+      <c r="J99">
+        <v>469</v>
+      </c>
+      <c r="K99">
+        <v>427</v>
+      </c>
+      <c r="L99">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100">
+        <f>AVERAGE(C99:L99)</f>
+        <v>497.4</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101">
+        <f>MIN(C99:L99)</f>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102">
+        <f>MAX(C99:L99)</f>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103">
+        <f>_xlfn.STDEV.P(C99:L99)</f>
+        <v>46.59012770963394</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B105" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C105">
+        <v>499</v>
+      </c>
+      <c r="D105">
+        <v>511</v>
+      </c>
+      <c r="E105">
+        <v>502</v>
+      </c>
+      <c r="F105">
+        <v>469</v>
+      </c>
+      <c r="G105">
+        <v>504</v>
+      </c>
+      <c r="H105">
+        <v>533</v>
+      </c>
+      <c r="I105">
+        <v>530</v>
+      </c>
+      <c r="J105">
+        <v>540</v>
+      </c>
+      <c r="K105">
+        <v>515</v>
+      </c>
+      <c r="L105">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106">
+        <f>AVERAGE(C105:L105)</f>
+        <v>508.7</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107">
+        <f>MIN(C105:L105)</f>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108">
+        <f>MAX(C105:L105)</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109">
+        <f>_xlfn.STDEV.P(C105:L105)</f>
+        <v>21.014518790588568</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B111" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111">
+        <v>474</v>
+      </c>
+      <c r="D111">
+        <v>446</v>
+      </c>
+      <c r="E111">
+        <v>523</v>
+      </c>
+      <c r="F111">
+        <v>554</v>
+      </c>
+      <c r="G111">
+        <v>461</v>
+      </c>
+      <c r="H111">
+        <v>550</v>
+      </c>
+      <c r="I111">
+        <v>508</v>
+      </c>
+      <c r="J111">
+        <v>459</v>
+      </c>
+      <c r="K111">
+        <v>512</v>
+      </c>
+      <c r="L111">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112">
+        <f>AVERAGE(C111:L111)</f>
+        <v>502.8</v>
+      </c>
+    </row>
+    <row r="113" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113">
+        <f>MIN(C111:L111)</f>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="114" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114">
+        <f>MAX(C111:L111)</f>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="115" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115">
+        <f>_xlfn.STDEV.P(C111:L111)</f>
+        <v>38.143937919412565</v>
+      </c>
+    </row>
+    <row r="117" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B117" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117">
+        <v>447</v>
+      </c>
+      <c r="D117">
+        <v>458</v>
+      </c>
+      <c r="E117">
+        <v>458</v>
+      </c>
+      <c r="F117">
+        <v>437</v>
+      </c>
+      <c r="G117">
+        <v>509</v>
+      </c>
+      <c r="H117">
+        <v>429</v>
+      </c>
+      <c r="I117">
+        <v>492</v>
+      </c>
+      <c r="J117">
+        <v>512</v>
+      </c>
+      <c r="K117">
+        <v>407</v>
+      </c>
+      <c r="L117">
+        <v>493</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S117" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T117" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U117" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V117" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W117" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X117" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y117" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118">
+        <f>AVERAGE(C117:L117)</f>
+        <v>464.2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>15</v>
+      </c>
+      <c r="P118">
+        <v>462.6</v>
+      </c>
+      <c r="Q118">
+        <v>496.85714285714283</v>
+      </c>
+      <c r="R118">
+        <v>679.4</v>
+      </c>
+      <c r="S118">
+        <v>440.4</v>
+      </c>
+      <c r="T118">
+        <v>497.4</v>
+      </c>
+      <c r="U118">
+        <v>508.7</v>
+      </c>
+      <c r="V118">
+        <v>502.8</v>
+      </c>
+      <c r="W118">
+        <v>464.2</v>
+      </c>
+      <c r="X118">
+        <v>421.6</v>
+      </c>
+      <c r="Y118">
+        <v>398.1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119">
+        <f>MIN(C117:L117)</f>
+        <v>407</v>
+      </c>
+      <c r="O119" t="s">
+        <v>21</v>
+      </c>
+      <c r="P119">
+        <v>393</v>
+      </c>
+      <c r="Q119">
+        <v>460</v>
+      </c>
+      <c r="R119">
+        <v>624</v>
+      </c>
+      <c r="S119">
+        <v>387</v>
+      </c>
+      <c r="T119">
+        <v>427</v>
+      </c>
+      <c r="U119">
+        <v>469</v>
+      </c>
+      <c r="V119">
+        <v>446</v>
+      </c>
+      <c r="W119">
+        <v>407</v>
+      </c>
+      <c r="X119">
+        <v>379</v>
+      </c>
+      <c r="Y119">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="120" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120">
+        <f>MAX(C117:L117)</f>
+        <v>512</v>
+      </c>
+      <c r="O120" t="s">
+        <v>22</v>
+      </c>
+      <c r="P120">
+        <v>507</v>
+      </c>
+      <c r="Q120">
+        <v>531</v>
+      </c>
+      <c r="R120">
+        <v>737</v>
+      </c>
+      <c r="S120">
+        <v>518</v>
+      </c>
+      <c r="T120">
+        <v>559</v>
+      </c>
+      <c r="U120">
+        <v>540</v>
+      </c>
+      <c r="V120">
+        <v>554</v>
+      </c>
+      <c r="W120">
+        <v>512</v>
+      </c>
+      <c r="X120">
+        <v>491</v>
+      </c>
+      <c r="Y120">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="121" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121">
+        <f>_xlfn.STDEV.P(C117:L117)</f>
+        <v>33.937589778886775</v>
+      </c>
+      <c r="O121" t="s">
+        <v>23</v>
+      </c>
+      <c r="P121" s="2">
+        <v>38.588081061384742</v>
+      </c>
+      <c r="Q121" s="2">
+        <v>20.876703156721792</v>
+      </c>
+      <c r="R121" s="2">
+        <v>31.809432563313667</v>
+      </c>
+      <c r="S121" s="2">
+        <v>41.752125694388305</v>
+      </c>
+      <c r="T121" s="2">
+        <v>46.59012770963394</v>
+      </c>
+      <c r="U121" s="2">
+        <v>21.014518790588568</v>
+      </c>
+      <c r="V121" s="2">
+        <v>38.143937919412565</v>
+      </c>
+      <c r="W121" s="2">
+        <v>33.937589778886775</v>
+      </c>
+      <c r="X121" s="2">
+        <v>39.932943793314308</v>
+      </c>
+      <c r="Y121" s="2">
+        <v>23.364288989823766</v>
+      </c>
+    </row>
+    <row r="122" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="O122" t="s">
+        <v>41</v>
+      </c>
+      <c r="P122">
+        <f t="shared" ref="P122:Y122" si="1">P118-365.2</f>
+        <v>97.400000000000034</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" si="1"/>
+        <v>131.65714285714284</v>
+      </c>
+      <c r="R122">
+        <f t="shared" si="1"/>
+        <v>314.2</v>
+      </c>
+      <c r="S122">
+        <f t="shared" si="1"/>
+        <v>75.199999999999989</v>
+      </c>
+      <c r="T122">
+        <f t="shared" si="1"/>
+        <v>132.19999999999999</v>
+      </c>
+      <c r="U122">
+        <f t="shared" si="1"/>
+        <v>143.5</v>
+      </c>
+      <c r="V122">
+        <f t="shared" si="1"/>
+        <v>137.60000000000002</v>
+      </c>
+      <c r="W122">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="X122">
+        <f t="shared" si="1"/>
+        <v>56.400000000000034</v>
+      </c>
+      <c r="Y122">
+        <f t="shared" si="1"/>
+        <v>32.900000000000034</v>
+      </c>
+    </row>
+    <row r="123" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B123" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C123">
+        <v>407</v>
+      </c>
+      <c r="D123">
+        <v>384</v>
+      </c>
+      <c r="E123">
+        <v>491</v>
+      </c>
+      <c r="F123">
+        <v>425</v>
+      </c>
+      <c r="G123">
+        <v>478</v>
+      </c>
+      <c r="H123">
+        <v>399</v>
+      </c>
+      <c r="I123">
+        <v>379</v>
+      </c>
+      <c r="J123">
+        <v>467</v>
+      </c>
+      <c r="K123">
+        <v>381</v>
+      </c>
+      <c r="L123">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="124" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124">
+        <f>AVERAGE(C123:L123)</f>
+        <v>421.6</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q124" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R124" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S124" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T124" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U124" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V124" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W124" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X124" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y124" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z124" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="125" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125">
+        <f>MIN(C123:L123)</f>
+        <v>379</v>
+      </c>
+      <c r="P125" s="2">
+        <v>97.400000000000034</v>
+      </c>
+      <c r="Q125" s="2">
+        <v>131.65714285714284</v>
+      </c>
+      <c r="R125" s="2">
+        <v>314.2</v>
+      </c>
+      <c r="S125" s="2">
+        <v>75.199999999999989</v>
+      </c>
+      <c r="T125" s="2">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="U125" s="2">
+        <v>143.5</v>
+      </c>
+      <c r="V125" s="2">
+        <v>137.60000000000002</v>
+      </c>
+      <c r="W125" s="2">
+        <v>99</v>
+      </c>
+      <c r="X125">
+        <v>56.400000000000034</v>
+      </c>
+      <c r="Y125">
+        <f>415.8-365-2</f>
+        <v>48.800000000000011</v>
+      </c>
+      <c r="Z125">
+        <v>32.900000000000034</v>
+      </c>
+    </row>
+    <row r="126" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126">
+        <f>MAX(C123:L123)</f>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="127" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127">
+        <f>_xlfn.STDEV.P(C123:L123)</f>
+        <v>39.932943793314308</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B129" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C129">
+        <v>372</v>
+      </c>
+      <c r="D129">
+        <v>378</v>
+      </c>
+      <c r="E129">
+        <v>397</v>
+      </c>
+      <c r="F129">
+        <v>401</v>
+      </c>
+      <c r="G129">
+        <v>411</v>
+      </c>
+      <c r="H129">
+        <v>391</v>
+      </c>
+      <c r="I129">
+        <v>379</v>
+      </c>
+      <c r="J129">
+        <v>455</v>
+      </c>
+      <c r="K129">
+        <v>415</v>
+      </c>
+      <c r="L129">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130">
+        <f>AVERAGE(C129:L129)</f>
+        <v>398.1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131">
+        <f>MIN(C129:L129)</f>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132">
+        <f>MAX(C129:L129)</f>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133">
+        <f>_xlfn.STDEV.P(C129:L129)</f>
+        <v>23.364288989823766</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>60</v>
+      </c>
+      <c r="C136">
+        <v>402</v>
+      </c>
+      <c r="D136">
+        <v>406</v>
+      </c>
+      <c r="E136">
+        <v>513</v>
+      </c>
+      <c r="F136">
+        <v>484</v>
+      </c>
+      <c r="G136">
+        <v>425</v>
+      </c>
+      <c r="H136">
+        <v>480</v>
+      </c>
+      <c r="I136">
+        <v>411</v>
+      </c>
+      <c r="J136">
+        <v>402</v>
+      </c>
+      <c r="K136">
+        <v>383</v>
+      </c>
+      <c r="L136">
+        <v>423</v>
+      </c>
+      <c r="M136">
+        <v>496</v>
+      </c>
+      <c r="N136">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>61</v>
+      </c>
+      <c r="C137">
+        <v>371</v>
+      </c>
+      <c r="D137">
+        <v>505</v>
+      </c>
+      <c r="E137">
+        <v>463</v>
+      </c>
+      <c r="F137">
+        <v>467</v>
+      </c>
+      <c r="G137">
+        <v>418</v>
+      </c>
+      <c r="H137">
+        <v>417</v>
+      </c>
+      <c r="I137">
+        <v>457</v>
+      </c>
+      <c r="J137">
+        <v>381</v>
+      </c>
+      <c r="K137">
+        <v>519</v>
+      </c>
+      <c r="L137">
+        <v>497</v>
+      </c>
+      <c r="M137">
+        <v>487</v>
+      </c>
+      <c r="N137">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>62</v>
+      </c>
+      <c r="C138">
+        <f>AVERAGE(C136:O136)</f>
+        <v>436.75</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>63</v>
+      </c>
+      <c r="C139">
+        <f>AVERAGE(C137:O137)</f>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>64</v>
+      </c>
+      <c r="D143" t="s">
+        <v>65</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G143" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C144">
+        <v>388</v>
+      </c>
+      <c r="D144">
+        <v>371</v>
+      </c>
+      <c r="F144">
+        <v>372</v>
+      </c>
+      <c r="G144">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C145">
+        <v>398</v>
+      </c>
+      <c r="D145">
+        <v>505</v>
+      </c>
+      <c r="F145">
+        <v>378</v>
+      </c>
+      <c r="G145">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="146" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C146">
+        <v>463</v>
+      </c>
+      <c r="D146">
+        <v>463</v>
+      </c>
+      <c r="F146">
+        <v>397</v>
+      </c>
+      <c r="G146">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C147">
+        <v>405</v>
+      </c>
+      <c r="D147">
+        <v>467</v>
+      </c>
+      <c r="F147">
+        <v>401</v>
+      </c>
+      <c r="G147">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="148" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C148">
+        <v>406</v>
+      </c>
+      <c r="D148">
+        <v>418</v>
+      </c>
+      <c r="F148">
+        <v>411</v>
+      </c>
+      <c r="G148">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="149" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C149">
+        <v>407</v>
+      </c>
+      <c r="D149">
+        <v>417</v>
+      </c>
+      <c r="F149">
+        <v>391</v>
+      </c>
+      <c r="G149">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="150" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C150">
+        <v>401</v>
+      </c>
+      <c r="D150">
+        <v>457</v>
+      </c>
+      <c r="F150">
+        <v>379</v>
+      </c>
+      <c r="G150">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="151" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C151">
+        <v>428</v>
+      </c>
+      <c r="D151">
+        <v>381</v>
+      </c>
+      <c r="F151">
+        <v>455</v>
+      </c>
+      <c r="G151">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="152" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C152">
+        <v>422</v>
+      </c>
+      <c r="D152">
+        <v>519</v>
+      </c>
+      <c r="F152">
+        <v>415</v>
+      </c>
+      <c r="G152">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="153" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C153">
+        <v>415</v>
+      </c>
+      <c r="D153">
+        <v>497</v>
+      </c>
+      <c r="F153">
+        <v>382</v>
+      </c>
+      <c r="G153">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="154" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C154">
+        <v>402</v>
+      </c>
+      <c r="D154">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="155" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C155">
+        <v>406</v>
+      </c>
+      <c r="D155">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="156" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C156">
+        <v>513</v>
+      </c>
+      <c r="D156">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="157" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C157">
+        <v>484</v>
+      </c>
+      <c r="D157">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="158" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C158">
+        <v>425</v>
+      </c>
+      <c r="D158">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="159" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C159">
+        <v>480</v>
+      </c>
+      <c r="D159">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="160" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C160">
+        <v>411</v>
+      </c>
+      <c r="D160">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="161" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C161">
+        <v>402</v>
+      </c>
+      <c r="D161">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="162" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C162">
+        <v>383</v>
+      </c>
+      <c r="D162">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="163" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C163">
+        <v>423</v>
+      </c>
+      <c r="D163">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="164" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C164">
+        <v>496</v>
+      </c>
+      <c r="D164">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="165" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C165">
+        <v>416</v>
+      </c>
+      <c r="D165">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="166" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C166">
+        <f>AVERAGE(C144:C165)</f>
+        <v>426.09090909090907</v>
+      </c>
+      <c r="D166">
+        <f>AVERAGE(D144:D165)</f>
+        <v>436.54545454545456</v>
+      </c>
+      <c r="F166">
+        <f t="shared" ref="E166:G166" si="2">AVERAGE(F144:F165)</f>
+        <v>398.1</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="2"/>
+        <v>415.8</v>
       </c>
     </row>
   </sheetData>
